--- a/12-opakovani/otázky ke zkoušce.xlsx
+++ b/12-opakovani/otázky ke zkoušce.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\4iz160-cviceni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\4iz160-cviceni\12-opakovani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43BCEF0-8676-4D7D-B3C1-CB354582FA14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4340C48D-59C6-492D-B963-C398B344E48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CE46129-BC7A-42C7-9A36-170690D1E201}"/>
   </bookViews>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A274E4-31AD-4CF7-B5B8-1A1802800CC0}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>72</v>
@@ -669,10 +669,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
         <v>72</v>
@@ -683,10 +683,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>72</v>
@@ -697,10 +697,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>72</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>72</v>
@@ -725,10 +725,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>72</v>
@@ -739,10 +739,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>72</v>
@@ -753,10 +753,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>72</v>
@@ -767,10 +767,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>72</v>
@@ -781,10 +781,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -795,10 +795,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>72</v>
@@ -809,10 +809,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
         <v>72</v>
@@ -823,10 +823,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
         <v>72</v>
@@ -837,10 +837,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>72</v>
@@ -851,10 +851,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>72</v>
@@ -865,10 +865,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>72</v>
@@ -879,10 +879,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
         <v>72</v>
@@ -893,10 +893,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
         <v>72</v>
@@ -907,10 +907,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>72</v>
@@ -921,10 +921,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
         <v>72</v>
@@ -935,10 +935,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
         <v>72</v>
@@ -949,10 +949,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
         <v>72</v>
@@ -963,10 +963,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
         <v>72</v>
@@ -977,10 +977,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
         <v>72</v>
@@ -991,10 +991,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
         <v>72</v>
@@ -1005,10 +1005,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
         <v>72</v>
@@ -1019,10 +1019,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
         <v>72</v>
@@ -1033,10 +1033,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
         <v>72</v>
@@ -1047,10 +1047,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
         <v>72</v>
@@ -1061,10 +1061,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
         <v>72</v>
@@ -1075,10 +1075,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
         <v>72</v>
@@ -1089,10 +1089,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
         <v>72</v>
@@ -1103,10 +1103,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
         <v>72</v>
@@ -1117,16 +1117,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E35">
+    <sortCondition descending="1" ref="E2:E35"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/12-opakovani/otázky ke zkoušce.xlsx
+++ b/12-opakovani/otázky ke zkoušce.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\4iz160-cviceni\12-opakovani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4340C48D-59C6-492D-B963-C398B344E48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06997CB-7019-429C-AF17-56372A82C515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CE46129-BC7A-42C7-9A36-170690D1E201}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10890" xr2:uid="{4CE46129-BC7A-42C7-9A36-170690D1E201}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>Téma</t>
   </si>
@@ -108,15 +108,9 @@
     <t>Prototypování REST API, JSON:API</t>
   </si>
   <si>
-    <t>JSON:API, Odata</t>
-  </si>
-  <si>
     <t>Jaké nástroje se používají pro dokumentaci a pro prototypování REST API? K čemu je vlastně dobré vytvářet prototyp REST API? Charakterizujte JSON:API, jeho vlastnosti a použití.</t>
   </si>
   <si>
-    <t>Proč se vlastně bavit o JSON:API či OData, když bychom mohli říct, že jde prostě o REST? V čem se tyto specifikace odlišují? Pokuste se najít příklad použití protokolu Odata.</t>
-  </si>
-  <si>
     <t>Zkuste popsat vlastnosti gRPC a možnosti jeho použití. Co mají společného gRPC a SOAP? Co jsou to "protocol buffers"? Našel/našla byste nějaký příklad implementace?</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>Přístup ke zdrojům</t>
   </si>
   <si>
-    <t>Jaký je rozdíl mezi licencovaným a volně dostupným zdrojem? Co je to autentizace a autorizace uživatelů? Jakými způsoby lze omezit přístup ke zdroji jen pro konkrétní uživatele? Co je to protokol OAuth?</t>
-  </si>
-  <si>
     <t>Přístup ke zdrojům v knihovnách</t>
   </si>
   <si>
@@ -253,6 +244,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Jaký je rozdíl mezi licencovaným a volně dostupným zdrojem? Co je to autentizace a autorizace uživatelů? Jakými způsoby lze omezit přístup ke zdroji jen pro konkrétní uživatele? Co je to protokol OAuth a kde se používá?</t>
+  </si>
+  <si>
+    <t>Proč se vlastně bavit o JSON:API či OData, když bychom mohli říct, že jde prostě o REST? V čem se tyto specifikace odlišují? Pokuste se najít příklad použití protokolu OData.</t>
+  </si>
+  <si>
+    <t>JSON:API, OData</t>
+  </si>
+  <si>
+    <t>Prototypování a dokumentování API</t>
+  </si>
+  <si>
+    <t>Jakým způsobem se obvykle popisuje struktura (požadavky, zasílaná data) základních typů API? Stručně popište možnosti popisu struktury u SOAP, REST a GraphQL API. K čemu je vhodné/použitelné prototypování API? Podařilo by se Vám najít nějaý vhodný nástroj pro prototypování REST API?</t>
   </si>
 </sst>
 </file>
@@ -327,9 +333,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 –⁠ 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -367,7 +373,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 –⁠ 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -473,7 +479,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 –⁠ 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -615,7 +621,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -623,16 +629,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A274E4-31AD-4CF7-B5B8-1A1802800CC0}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="53.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -647,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -655,13 +659,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -669,13 +673,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -683,13 +687,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -697,13 +701,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -711,13 +715,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,13 +729,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,13 +743,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,13 +771,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -781,13 +785,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -795,13 +799,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -809,13 +813,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -823,13 +827,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -837,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -851,13 +855,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,13 +869,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,13 +883,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -893,13 +897,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -907,13 +911,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,13 +925,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -935,13 +939,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -949,13 +953,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,13 +967,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -977,13 +981,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -991,13 +995,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1005,13 +1009,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1019,13 +1023,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1033,13 +1037,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1047,13 +1051,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1061,13 +1065,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,13 +1079,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1089,13 +1093,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1103,13 +1107,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,18 +1121,32 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E35">
-    <sortCondition descending="1" ref="E2:E35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E36">
+    <sortCondition descending="1" ref="E2:E36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
